--- a/src/test/resources/example/IF0001/UT0001/setup_SourceFiles.xlsx
+++ b/src/test/resources/example/IF0001/UT0001/setup_SourceFiles.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuroiwa-keijiro\git\etl-tester\src\test\resources\example\IF0001\UT0001\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="8580"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="shop.txt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N29"/>
 </workbook>
 </file>
 
@@ -78,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,16 +98,37 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,20 +136,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,9 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -447,58 +494,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>1000</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>100</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>200</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -514,7 +561,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,18 +570,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
